--- a/Sprint backlogs.xlsx
+++ b/Sprint backlogs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Documents\GitHub\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B24C9B6-9DA0-41A1-8351-7D179CE70EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1E872-29FC-4D0D-B443-3F275160C21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9715" xr2:uid="{156A0835-04AA-417F-AA37-3C94B29BD0A5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{156A0835-04AA-417F-AA37-3C94B29BD0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Tasks</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Logging off</t>
   </si>
   <si>
-    <t>Coding to get the logg of function</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>Coding to get the log off function</t>
+  </si>
+  <si>
+    <t>Code for creating an order line</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Code for removing an order line</t>
+  </si>
+  <si>
+    <t>Code to donate to a single disaster</t>
   </si>
 </sst>
 </file>
@@ -188,10 +197,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,27 +515,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04179977-98F5-4BA3-B26B-C0287B3E43FD}">
-  <dimension ref="C2:N32"/>
+  <dimension ref="C2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
-    <col min="3" max="3" width="19.4140625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.4609375" customWidth="1"/>
+    <col min="2" max="2" width="11.07421875" customWidth="1"/>
+    <col min="3" max="3" width="19.3828125" customWidth="1"/>
+    <col min="4" max="4" width="27.69140625" customWidth="1"/>
+    <col min="5" max="5" width="15.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -564,8 +573,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
@@ -578,8 +587,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -593,14 +602,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -613,8 +622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -628,14 +637,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
@@ -645,8 +654,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="2"/>
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -654,8 +663,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="2"/>
       <c r="D14" t="s">
         <v>24</v>
       </c>
@@ -663,8 +672,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
       <c r="D15" t="s">
         <v>25</v>
       </c>
@@ -672,8 +681,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
@@ -683,8 +692,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
       <c r="D17" t="s">
         <v>28</v>
       </c>
@@ -692,18 +701,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>18</v>
       </c>
@@ -726,42 +735,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>

--- a/Sprint backlogs.xlsx
+++ b/Sprint backlogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Documents\GitHub\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E9513-50F4-4E44-A9C0-CE9590B30156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA55F9-0621-4B98-B3A4-6BD477807D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15980" activeTab="2" xr2:uid="{67BB49A0-8FD9-BB42-AE2B-A18D387602E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{67BB49A0-8FD9-BB42-AE2B-A18D387602E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,7 +173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -458,7 +458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="931440799"/>
@@ -517,7 +517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="880514607"/>
@@ -559,7 +559,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -596,7 +596,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -610,7 +610,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -683,7 +683,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -750,16 +750,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.75</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.25</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -831,7 +831,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>47</c:v>
@@ -908,7 +908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922123343"/>
@@ -967,7 +967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="970846751"/>
@@ -1009,7 +1009,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1046,7 +1046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1060,7 +1060,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1072,6 +1072,82 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.11-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>04</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1097,7 +1173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1164,19 +1240,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.12</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.24</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.36</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,19 +1321,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837445712"/>
@@ -1381,7 +1457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837426448"/>
@@ -1423,7 +1499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1460,7 +1536,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3561,13 +3637,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629EF48-45C3-4346-9E8F-FBD96B2EAE25}">
   <dimension ref="C21:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>0</v>
       </c>
@@ -3586,7 +3662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>1</v>
       </c>
@@ -3598,7 +3674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>2</v>
       </c>
@@ -3610,7 +3686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>3</v>
       </c>
@@ -3622,7 +3698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>4</v>
       </c>
@@ -3634,7 +3710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>5</v>
       </c>
@@ -3646,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>6</v>
       </c>
@@ -3658,7 +3734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>7</v>
       </c>
@@ -3670,7 +3746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>8</v>
       </c>
@@ -3682,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>9</v>
       </c>
@@ -3704,12 +3780,12 @@
   <dimension ref="C7:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -3717,54 +3793,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <f>D8-16.25</f>
-        <v>48.75</v>
+        <f>D8-16.75</f>
+        <v>50.25</v>
       </c>
       <c r="E9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D12" si="0">D9-16.25</f>
-        <v>32.5</v>
+        <f t="shared" ref="D10:D12" si="0">D9-16.75</f>
+        <v>33.5</v>
       </c>
       <c r="E10">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>16.25</v>
+        <v>16.75</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>4</v>
       </c>
@@ -3784,15 +3860,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A911E262-2A6D-6E46-B08C-E321438049AD}">
-  <dimension ref="C12:E22"/>
+  <dimension ref="C7:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>1+3+6+3+2+2+5+3+7+2+5</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>80-58</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>1+3+7+4+1+6+3+3+5+2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>10+2+2+3+7+2+2+3+5+7+2+6+7+2+5+1+2+5+7+5+2+2+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -3801,82 +3901,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>71.12</v>
+        <f>D13-22.5</f>
+        <v>67.5</v>
       </c>
       <c r="E14" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>62.24</v>
+        <f t="shared" ref="D15:D17" si="0">D14-22.5</f>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>53.36</v>
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>44.48</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>

--- a/Sprint backlogs.xlsx
+++ b/Sprint backlogs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Documents\GitHub\SaveTheWorld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA55F9-0621-4B98-B3A4-6BD477807D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B7545-141B-4A25-9753-A177CBE8DB33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{67BB49A0-8FD9-BB42-AE2B-A18D387602E7}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -106,7 +106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="bg-BG"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -366,7 +366,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73</c:v>
@@ -610,7 +610,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="bg-BG"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1060,7 +1060,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="bg-BG"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1321,7 +1321,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80</c:v>
@@ -3339,9 +3339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3379,7 +3379,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3485,7 +3485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3638,7 +3638,7 @@
   <dimension ref="C21:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3659,7 +3659,7 @@
         <v>80</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
@@ -3779,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD432C-1F96-DA40-A9D7-2B1B4FB2DA86}">
   <dimension ref="C7:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3863,7 +3863,7 @@
   <dimension ref="C7:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3909,7 +3909,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">

--- a/Sprint backlogs.xlsx
+++ b/Sprint backlogs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SaveTheWorld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Documents\GitHub\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B7545-141B-4A25-9753-A177CBE8DB33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC689ACF-61A4-4BC3-8BBF-596FFAF905CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{67BB49A0-8FD9-BB42-AE2B-A18D387602E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{67BB49A0-8FD9-BB42-AE2B-A18D387602E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Ideal</t>
   </si>
@@ -88,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -106,7 +107,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -610,7 +611,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1060,7 +1061,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1547,6 +1548,510 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sprint </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>04</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>.)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC52-4718-A29B-A0CEB63C4364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC52-4718-A29B-A0CEB63C4364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1222603471"/>
+        <c:axId val="1260751167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1222603471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260751167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1260751167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222603471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1667,6 +2172,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2700,6 +3245,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3338,10 +4399,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961CB5AF-7D06-4C76-B85E-04BAA234BD14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3379,7 +4481,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3485,7 +4587,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3862,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A911E262-2A6D-6E46-B08C-E321438049AD}">
   <dimension ref="C7:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3989,4 +5091,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113064EF-B9C1-4A8F-A6A4-766E754F1133}">
+  <dimension ref="B5:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6-8.5</f>
+        <v>25.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C10" si="0">C7-8.5</f>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>